--- a/medicine/Enfance/Ritchie_Perry/Ritchie_Perry.xlsx
+++ b/medicine/Enfance/Ritchie_Perry/Ritchie_Perry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ritchie Perry, né en 1942, est un auteur britannique de roman policier, roman d’espionnage et littérature d’enfance et de jeunesse. Il a également donné deux romans de mœurs signés John Allen, deux de ses propres prénoms.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études supérieures à l’Université d'Oxford, où il obtient un diplôme en histoire avec mention en 1964. Il travaille ensuite pendant deux ans comme gestionnaire de stagiaires pour la Bank of London et séjourne pour son emploi au Brésil.   Il a d’ailleurs publié un ouvrage sur ce pays en 1977.
 En 1966, il devient professeur successivement dans divers établissements scolaires, avant de se fixer à Luton, dans le Bedfordshire, en 1975. En 1976, il se marie.  Son épouse et lui auront deux filles.
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Philis
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Philis</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Fall Guy (1972) Publié en français sous le titre Le Petit Jeu de Mélanie, Paris, Librairie des Champs-Élysées, Le Masque no 1332, 1974
 The Nowhere Man ou A Hard Man to Kill (1973) Publié en français sous le titre Le brouillard se dissipe, Paris, Librairie des Champs-Élysées, Le Masque no 1386, 1975
 Ticket to Ride (1973) Publié en français sous le titre Rien ne sert de doubler, Paris, Librairie des Champs-Élysées, Le Masque no 1407, 1975
@@ -562,34 +585,7 @@
 Fool's Mate (1981)
 Foul Up (1982)
 Kolwezi (1985)
-Série Frank MacAllister
-MacAllister (1984)
-Presumed Dead (1987)
-Autre roman policier
-Comeback (1991)
-Romans non-policiers signés John Allen
-Copacabana Stud (1977)
-Up Tight (1979)
-Littérature d’enfance et de jeunesse
-Série George H. Ghastly
-George H.Ghastly (1970)
-George H.Ghastly to the Rescue (1983)
-George H.Ghastly and the Little Horror (1985)
-Série Fenella Fang
-Fenella Fang (1986)
-Fenella Fang and the Great Escape (1987)
-Fenella Fang and the Wicked Witch (1989)
-Fenella Fang and the Time Machine (1991)
-Autres romans
-The Creepy Tale (1989)
-The Runton Werewolf (1994)
-Recueils de nouvelles
-Freaky Stories (1999)
-Spooky Stories (1999), en collaboration avec Colin Dann
-Théâtre
-Tales of the Darkness (2007)
-Autre publication
-Brazil: the Land and its People (1977)</t>
+</t>
         </is>
       </c>
     </row>
@@ -614,10 +610,369 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Frank MacAllister</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MacAllister (1984)
+Presumed Dead (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autre roman policier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Comeback (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans non-policiers signés John Allen</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Copacabana Stud (1977)
+Up Tight (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série George H. Ghastly</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>George H.Ghastly (1970)
+George H.Ghastly to the Rescue (1983)
+George H.Ghastly and the Little Horror (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Fenella Fang</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fenella Fang (1986)
+Fenella Fang and the Great Escape (1987)
+Fenella Fang and the Wicked Witch (1989)
+Fenella Fang and the Time Machine (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Creepy Tale (1989)
+The Runton Werewolf (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Freaky Stories (1999)
+Spooky Stories (1999), en collaboration avec Colin Dann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tales of the Darkness (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Brazil: the Land and its People (1977)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ritchie_Perry</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 342-343.
 (en) John M. Reilly (Ed.), Twentieth-century crime and mystery writers, New York, St. Martin's Press, coll. « Twentieth-century writers of the English language », 1982 (réimpr. 1991), 2e éd., 1568 p. (ISBN 978-0-312-82417-4, OCLC 6688156), p. 705-706.</t>
